--- a/inst/dados_premissas/2022/fc_distribuidoras_mensal.xlsx
+++ b/inst/dados_premissas/2022/fc_distribuidoras_mensal.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md\inst\dados_premissas\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md-git3\inst\dados_premissas\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742E95FB-F5A9-438A-98B7-BFE9BF46B427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,9 +112,6 @@
     <t>CEEE</t>
   </si>
   <si>
-    <t>ENEL GO</t>
-  </si>
-  <si>
     <t>EMG</t>
   </si>
   <si>
@@ -194,11 +192,14 @@
   <si>
     <t>EQUATORIAL MA</t>
   </si>
+  <si>
+    <t>EQUATORIAL GO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -334,6 +335,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -369,6 +387,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -544,19 +579,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D649"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
       <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -584,7 +619,7 @@
         <v>0.16437925925925931</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -598,7 +633,7 @@
         <v>0.17992666666666671</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -612,7 +647,7 @@
         <v>0.17640888888888889</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -626,7 +661,7 @@
         <v>0.1869162962962963</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -640,7 +675,7 @@
         <v>0.18844222222222221</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -654,7 +689,7 @@
         <v>0.18167555555555559</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -668,7 +703,7 @@
         <v>0.1842081481481482</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -682,7 +717,7 @@
         <v>0.21059259259259261</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -696,7 +731,7 @@
         <v>0.191742962962963</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -710,7 +745,7 @@
         <v>0.1808940740740741</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -724,7 +759,7 @@
         <v>0.16269259259259261</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -738,7 +773,7 @@
         <v>0.16324962962962969</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -752,7 +787,7 @@
         <v>0.1745120969178692</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -766,7 +801,7 @@
         <v>0.1776305184393373</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -780,7 +815,7 @@
         <v>0.17685897024763941</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -794,7 +829,7 @@
         <v>0.16543066096561551</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -808,7 +843,7 @@
         <v>0.14160311776233739</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -822,7 +857,7 @@
         <v>0.13128900766078741</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -836,7 +871,7 @@
         <v>0.13837737395332261</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -850,7 +885,7 @@
         <v>0.1689215214680207</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -864,7 +899,7 @@
         <v>0.15670634241938361</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -878,7 +913,7 @@
         <v>0.16472100481026189</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -892,7 +927,7 @@
         <v>0.17732175307322279</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -906,7 +941,7 @@
         <v>0.17930513094601819</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -920,7 +955,7 @@
         <v>0.17758888888888891</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -934,7 +969,7 @@
         <v>0.1757133333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -948,7 +983,7 @@
         <v>0.1654133333333333</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -962,7 +997,7 @@
         <v>0.1551177777777778</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -976,7 +1011,7 @@
         <v>0.1338466666666667</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -990,7 +1025,7 @@
         <v>0.1163466666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1039,7 @@
         <v>0.12392444444444441</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1018,7 +1053,7 @@
         <v>0.14423111111111109</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1032,7 +1067,7 @@
         <v>0.13228444444444451</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1046,7 +1081,7 @@
         <v>0.1471577777777778</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1060,7 +1095,7 @@
         <v>0.17697777777777779</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1074,7 +1109,7 @@
         <v>0.17975555555555561</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1088,7 +1123,7 @@
         <v>0.16257764705882349</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1102,7 +1137,7 @@
         <v>0.1794725490196078</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1116,7 +1151,7 @@
         <v>0.17007725490196079</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1130,7 +1165,7 @@
         <v>0.167641568627451</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1144,7 +1179,7 @@
         <v>0.14807098039215691</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1158,7 +1193,7 @@
         <v>0.14308078431372551</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1172,7 +1207,7 @@
         <v>0.14464117647058819</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1186,7 +1221,7 @@
         <v>0.17270117647058819</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1200,7 +1235,7 @@
         <v>0.1591878431372549</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1214,7 +1249,7 @@
         <v>0.16207058823529411</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1228,7 +1263,7 @@
         <v>0.16467450980392159</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1242,7 +1277,7 @@
         <v>0.17333137254901959</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1256,7 +1291,7 @@
         <v>0.1396352818914004</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1270,7 +1305,7 @@
         <v>0.1358875032475968</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1284,7 +1319,7 @@
         <v>0.1361666406858924</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1298,7 +1333,7 @@
         <v>0.13907978695765141</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1312,7 +1347,7 @@
         <v>0.14731779683034549</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1326,7 +1361,7 @@
         <v>0.15386591322421411</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1340,7 +1375,7 @@
         <v>0.15926404260846971</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1354,7 +1389,7 @@
         <v>0.1720801506884905</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1368,7 +1403,7 @@
         <v>0.178950116913484</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -1382,7 +1417,7 @@
         <v>0.17630433878929591</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1396,7 +1431,7 @@
         <v>0.1693517017407119</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1410,7 +1445,7 @@
         <v>0.1485938425565082</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -1424,7 +1459,7 @@
         <v>0.1621971485943775</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1438,7 +1473,7 @@
         <v>0.16740160642570279</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1452,7 +1487,7 @@
         <v>0.16560085676037481</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1466,7 +1501,7 @@
         <v>0.1735273493975904</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1515,7 @@
         <v>0.18281935742971889</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1494,7 +1529,7 @@
         <v>0.1866274966532798</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1508,7 +1543,7 @@
         <v>0.19369848728246319</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1522,7 +1557,7 @@
         <v>0.21067236947791171</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -1536,7 +1571,7 @@
         <v>0.19752313253012049</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1550,7 +1585,7 @@
         <v>0.17587368139223561</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1564,7 +1599,7 @@
         <v>0.16183076305220881</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -1578,9 +1613,9 @@
         <v>0.15995692101740289</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1592,9 +1627,9 @@
         <v>0.15490607280657609</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -1606,9 +1641,9 @@
         <v>0.15854192249622551</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -1620,9 +1655,9 @@
         <v>0.1624952860258346</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -1634,9 +1669,9 @@
         <v>0.15377243751048481</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -1648,9 +1683,9 @@
         <v>0.14214032880389199</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -1662,9 +1697,9 @@
         <v>0.14869438013756081</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B80">
         <v>7</v>
@@ -1676,9 +1711,9 @@
         <v>0.15162011407481971</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B81">
         <v>8</v>
@@ -1690,9 +1725,9 @@
         <v>0.1675574232511324</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B82">
         <v>9</v>
@@ -1704,9 +1739,9 @@
         <v>0.1801295084717329</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B83">
         <v>10</v>
@@ -1718,9 +1753,9 @@
         <v>0.1775934574735783</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B84">
         <v>11</v>
@@ -1732,9 +1767,9 @@
         <v>0.1701976346250629</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B85">
         <v>12</v>
@@ -1746,7 +1781,7 @@
         <v>0.1595101660795169</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -1760,7 +1795,7 @@
         <v>0.14132907017376661</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -1774,7 +1809,7 @@
         <v>0.14415316560246511</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -1788,7 +1823,7 @@
         <v>0.14573255185997011</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -1802,7 +1837,7 @@
         <v>0.1458680421868547</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -1816,7 +1851,7 @@
         <v>0.15256319768734711</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -1830,7 +1865,7 @@
         <v>0.16385347374440101</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -1844,7 +1879,7 @@
         <v>0.1651879030464754</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -1858,7 +1893,7 @@
         <v>0.17937876362019131</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -1872,7 +1907,7 @@
         <v>0.1721204263159567</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -1886,7 +1921,7 @@
         <v>0.16554293656088179</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -1900,7 +1935,7 @@
         <v>0.15791255440134691</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -1914,9 +1949,9 @@
         <v>0.1462916452238</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1928,9 +1963,9 @@
         <v>0.15394447866757929</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -1942,9 +1977,9 @@
         <v>0.15945245265799679</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -1956,9 +1991,9 @@
         <v>0.1611425621720283</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B101">
         <v>4</v>
@@ -1970,9 +2005,9 @@
         <v>0.16438991558293409</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -1984,9 +2019,9 @@
         <v>0.16992436687200549</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B103">
         <v>6</v>
@@ -1998,9 +2033,9 @@
         <v>0.17882897558749711</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B104">
         <v>7</v>
@@ -2012,9 +2047,9 @@
         <v>0.18448690394706821</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B105">
         <v>8</v>
@@ -2026,9 +2061,9 @@
         <v>0.19966760209901899</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B106">
         <v>9</v>
@@ -2040,9 +2075,9 @@
         <v>0.2029667237052247</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B107">
         <v>10</v>
@@ -2054,9 +2089,9 @@
         <v>0.18515455167693359</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B108">
         <v>11</v>
@@ -2068,9 +2103,9 @@
         <v>0.1703813826146475</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B109">
         <v>12</v>
@@ -2082,7 +2117,7 @@
         <v>0.16110386721423681</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -2096,7 +2131,7 @@
         <v>0.17350439346228819</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -2110,7 +2145,7 @@
         <v>0.17567022042285199</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -2124,7 +2159,7 @@
         <v>0.17822681061628429</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>11</v>
       </c>
@@ -2138,7 +2173,7 @@
         <v>0.17994342480131961</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -2152,7 +2187,7 @@
         <v>0.1849522717049033</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -2166,7 +2201,7 @@
         <v>0.1883026390763233</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -2180,7 +2215,7 @@
         <v>0.19735730994152051</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>11</v>
       </c>
@@ -2194,7 +2229,7 @@
         <v>0.21588337082021289</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>11</v>
       </c>
@@ -2208,7 +2243,7 @@
         <v>0.2210695906432748</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -2222,7 +2257,7 @@
         <v>0.2069818863397811</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -2236,7 +2271,7 @@
         <v>0.1923639376218324</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -2250,7 +2285,7 @@
         <v>0.18078764432448641</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>12</v>
       </c>
@@ -2264,7 +2299,7 @@
         <v>0.1826149162861492</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>12</v>
       </c>
@@ -2278,7 +2313,7 @@
         <v>0.19744238964992389</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -2292,7 +2327,7 @@
         <v>0.17874208523592081</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -2306,7 +2341,7 @@
         <v>0.16704961948249619</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -2320,7 +2355,7 @@
         <v>0.1518222222222223</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -2334,7 +2369,7 @@
         <v>0.14655677321156771</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -2348,7 +2383,7 @@
         <v>0.14739977168949769</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -2362,7 +2397,7 @@
         <v>0.1651155251141552</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -2376,7 +2411,7 @@
         <v>0.16927983257229831</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>12</v>
       </c>
@@ -2390,7 +2425,7 @@
         <v>0.16247747336377469</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -2404,7 +2439,7 @@
         <v>0.1530305175038052</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -2418,7 +2453,7 @@
         <v>0.17251856925418571</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -2432,7 +2467,7 @@
         <v>0.18068376068376071</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>13</v>
       </c>
@@ -2446,7 +2481,7 @@
         <v>0.19463803418803419</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -2460,7 +2495,7 @@
         <v>0.17893333333333331</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -2474,7 +2509,7 @@
         <v>0.16611410256410261</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -2488,7 +2523,7 @@
         <v>0.150832905982906</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -2502,7 +2537,7 @@
         <v>0.14500854700854701</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -2516,7 +2551,7 @@
         <v>0.1450440170940171</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -2530,7 +2565,7 @@
         <v>0.1596952991452992</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>13</v>
       </c>
@@ -2544,7 +2579,7 @@
         <v>0.16471837606837611</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -2558,7 +2593,7 @@
         <v>0.15811111111111109</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -2572,7 +2607,7 @@
         <v>0.15025427350427351</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -2586,7 +2621,7 @@
         <v>0.16988290598290601</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -2600,7 +2635,7 @@
         <v>0.17204066193853429</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>14</v>
       </c>
@@ -2614,7 +2649,7 @@
         <v>0.19179196217494091</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -2628,7 +2663,7 @@
         <v>0.1706749408983452</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -2642,7 +2677,7 @@
         <v>0.1648853427895981</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>14</v>
       </c>
@@ -2656,7 +2691,7 @@
         <v>0.14662600472813239</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>14</v>
       </c>
@@ -2670,7 +2705,7 @@
         <v>0.14373120567375891</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -2684,7 +2719,7 @@
         <v>0.1441553191489362</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>14</v>
       </c>
@@ -2698,7 +2733,7 @@
         <v>0.1680988179669031</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -2712,7 +2747,7 @@
         <v>0.15983356973995269</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -2726,7 +2761,7 @@
         <v>0.1597763593380615</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -2740,7 +2775,7 @@
         <v>0.15163073286052009</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -2754,7 +2789,7 @@
         <v>0.16790780141843969</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -2768,7 +2803,7 @@
         <v>0.16896950959488269</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -2782,7 +2817,7 @@
         <v>0.18272056384742949</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -2796,7 +2831,7 @@
         <v>0.1759071310116086</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -2810,7 +2845,7 @@
         <v>0.17305728500355361</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -2824,7 +2859,7 @@
         <v>0.15428948116560059</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>15</v>
       </c>
@@ -2838,7 +2873,7 @@
         <v>0.14804330727315801</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>15</v>
       </c>
@@ -2852,7 +2887,7 @@
         <v>0.15171781568348741</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -2866,7 +2901,7 @@
         <v>0.17803641317223409</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -2880,7 +2915,7 @@
         <v>0.16429639895759299</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>15</v>
       </c>
@@ -2894,7 +2929,7 @@
         <v>0.16808147358445871</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>15</v>
       </c>
@@ -2908,7 +2943,7 @@
         <v>0.1712883203032457</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>15</v>
       </c>
@@ -2922,7 +2957,7 @@
         <v>0.1776612177209192</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>16</v>
       </c>
@@ -2936,7 +2971,7 @@
         <v>0.15394814814814811</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>16</v>
       </c>
@@ -2950,7 +2985,7 @@
         <v>0.1713253968253968</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>16</v>
       </c>
@@ -2964,7 +2999,7 @@
         <v>0.15838042328042329</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>16</v>
       </c>
@@ -2978,7 +3013,7 @@
         <v>0.15545925925925921</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>16</v>
       </c>
@@ -2992,7 +3027,7 @@
         <v>0.13779523809523811</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>16</v>
       </c>
@@ -3006,7 +3041,7 @@
         <v>0.13317142857142861</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>16</v>
       </c>
@@ -3020,7 +3055,7 @@
         <v>0.1339957671957672</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>16</v>
       </c>
@@ -3034,7 +3069,7 @@
         <v>0.1608063492063492</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>16</v>
       </c>
@@ -3048,7 +3083,7 @@
         <v>0.14427513227513231</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>16</v>
       </c>
@@ -3062,7 +3097,7 @@
         <v>0.1452968253968254</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>16</v>
       </c>
@@ -3076,7 +3111,7 @@
         <v>0.1511851851851852</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>16</v>
       </c>
@@ -3090,7 +3125,7 @@
         <v>0.16283121693121691</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>17</v>
       </c>
@@ -3104,7 +3139,7 @@
         <v>0.15985529715762281</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>17</v>
       </c>
@@ -3118,7 +3153,7 @@
         <v>0.1776382428940568</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>17</v>
       </c>
@@ -3132,7 +3167,7 @@
         <v>0.1626656330749354</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -3146,7 +3181,7 @@
         <v>0.16165167958656329</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>17</v>
       </c>
@@ -3160,7 +3195,7 @@
         <v>0.14337958656330749</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>17</v>
       </c>
@@ -3174,7 +3209,7 @@
         <v>0.14006614987080099</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>17</v>
       </c>
@@ -3188,7 +3223,7 @@
         <v>0.14201653746770029</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -3202,7 +3237,7 @@
         <v>0.1695586563307494</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>17</v>
       </c>
@@ -3216,7 +3251,7 @@
         <v>0.15462196382428939</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>17</v>
       </c>
@@ -3230,7 +3265,7 @@
         <v>0.15722144702842381</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>17</v>
       </c>
@@ -3244,7 +3279,7 @@
         <v>0.1539485788113695</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -3258,7 +3293,7 @@
         <v>0.16585684754521959</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>18</v>
       </c>
@@ -3272,7 +3307,7 @@
         <v>0.18893890210067379</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>18</v>
       </c>
@@ -3286,7 +3321,7 @@
         <v>0.1893913793103448</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -3300,7 +3335,7 @@
         <v>0.18147185889813719</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>18</v>
       </c>
@@ -3314,7 +3349,7 @@
         <v>0.16202233452239401</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>18</v>
       </c>
@@ -3328,7 +3363,7 @@
         <v>0.13192833927863659</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>18</v>
       </c>
@@ -3342,7 +3377,7 @@
         <v>0.11504916765755049</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>18</v>
       </c>
@@ -3356,7 +3391,7 @@
         <v>0.1264242964724534</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>18</v>
       </c>
@@ -3370,7 +3405,7 @@
         <v>0.14816755846214821</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>18</v>
       </c>
@@ -3384,7 +3419,7 @@
         <v>0.14522241379310341</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>18</v>
       </c>
@@ -3398,7 +3433,7 @@
         <v>0.16733426476416971</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>18</v>
       </c>
@@ -3412,7 +3447,7 @@
         <v>0.1887886642885454</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>18</v>
       </c>
@@ -3426,7 +3461,7 @@
         <v>0.1922980182322632</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>19</v>
       </c>
@@ -3440,7 +3475,7 @@
         <v>0.18545585585585589</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>19</v>
       </c>
@@ -3454,7 +3489,7 @@
         <v>0.18770360360360361</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>19</v>
       </c>
@@ -3468,7 +3503,7 @@
         <v>0.1788306306306307</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>19</v>
       </c>
@@ -3482,7 +3517,7 @@
         <v>0.1630513513513514</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>19</v>
       </c>
@@ -3496,7 +3531,7 @@
         <v>0.13544594594594589</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>19</v>
       </c>
@@ -3510,7 +3545,7 @@
         <v>0.1170441441441441</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -3524,7 +3559,7 @@
         <v>0.13006216216216221</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -3538,7 +3573,7 @@
         <v>0.15186396396396401</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -3552,7 +3587,7 @@
         <v>0.14349549549549551</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>19</v>
       </c>
@@ -3566,7 +3601,7 @@
         <v>0.16693063063063071</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>19</v>
       </c>
@@ -3580,7 +3615,7 @@
         <v>0.1869189189189189</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>19</v>
       </c>
@@ -3594,7 +3629,7 @@
         <v>0.18882792792792791</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>20</v>
       </c>
@@ -3608,7 +3643,7 @@
         <v>0.1864929824561404</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>20</v>
       </c>
@@ -3622,7 +3657,7 @@
         <v>0.18946842105263159</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>20</v>
       </c>
@@ -3636,7 +3671,7 @@
         <v>0.18160877192982461</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>20</v>
       </c>
@@ -3650,7 +3685,7 @@
         <v>0.16271754385964909</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>20</v>
       </c>
@@ -3664,7 +3699,7 @@
         <v>0.1362192982456141</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>20</v>
       </c>
@@ -3678,7 +3713,7 @@
         <v>0.1171473684210526</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>20</v>
       </c>
@@ -3692,7 +3727,7 @@
         <v>0.12921929824561409</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>20</v>
       </c>
@@ -3706,7 +3741,7 @@
         <v>0.15102982456140349</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>20</v>
       </c>
@@ -3720,7 +3755,7 @@
         <v>0.1450175438596491</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>20</v>
       </c>
@@ -3734,7 +3769,7 @@
         <v>0.16775438596491229</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>20</v>
       </c>
@@ -3748,7 +3783,7 @@
         <v>0.18590350877192979</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>20</v>
       </c>
@@ -3762,7 +3797,7 @@
         <v>0.18916491228070181</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -3776,7 +3811,7 @@
         <v>0.18679215686274511</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>21</v>
       </c>
@@ -3790,7 +3825,7 @@
         <v>0.18994313725490189</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>21</v>
       </c>
@@ -3804,7 +3839,7 @@
         <v>0.1798901960784314</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -3818,7 +3853,7 @@
         <v>0.1583107843137255</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -3832,7 +3867,7 @@
         <v>0.1275509803921569</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>21</v>
       </c>
@@ -3846,7 +3881,7 @@
         <v>0.110343137254902</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>21</v>
       </c>
@@ -3860,7 +3895,7 @@
         <v>0.1194392156862745</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>21</v>
       </c>
@@ -3874,7 +3909,7 @@
         <v>0.14178725490196081</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>21</v>
       </c>
@@ -3888,7 +3923,7 @@
         <v>0.1394833333333334</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>21</v>
       </c>
@@ -3902,7 +3937,7 @@
         <v>0.1620872549019608</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>21</v>
       </c>
@@ -3916,7 +3951,7 @@
         <v>0.1877225490196078</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -3930,7 +3965,7 @@
         <v>0.19251176470588241</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>22</v>
       </c>
@@ -3944,7 +3979,7 @@
         <v>0.1829466666666667</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>22</v>
       </c>
@@ -3958,7 +3993,7 @@
         <v>0.18421999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>22</v>
       </c>
@@ -3972,7 +4007,7 @@
         <v>0.1767755555555556</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>22</v>
       </c>
@@ -3986,7 +4021,7 @@
         <v>0.16168888888888891</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>22</v>
       </c>
@@ -4000,7 +4035,7 @@
         <v>0.1327888888888889</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>22</v>
       </c>
@@ -4014,7 +4049,7 @@
         <v>0.1168622222222222</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>22</v>
       </c>
@@ -4028,7 +4063,7 @@
         <v>0.13040444444444441</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>22</v>
       </c>
@@ -4042,7 +4077,7 @@
         <v>0.1531622222222222</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>22</v>
       </c>
@@ -4056,7 +4091,7 @@
         <v>0.14280444444444451</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>22</v>
       </c>
@@ -4070,7 +4105,7 @@
         <v>0.16395999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>22</v>
       </c>
@@ -4084,7 +4119,7 @@
         <v>0.18622</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>22</v>
       </c>
@@ -4098,7 +4133,7 @@
         <v>0.1866866666666667</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>23</v>
       </c>
@@ -4112,7 +4147,7 @@
         <v>0.1924618357487923</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>23</v>
       </c>
@@ -4126,7 +4161,7 @@
         <v>0.19286570048309179</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>23</v>
       </c>
@@ -4140,7 +4175,7 @@
         <v>0.19662028985507249</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>23</v>
       </c>
@@ -4154,7 +4189,7 @@
         <v>0.17251594202898549</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>23</v>
       </c>
@@ -4168,7 +4203,7 @@
         <v>0.15161594202898551</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>23</v>
       </c>
@@ -4182,7 +4217,7 @@
         <v>0.14472270531400969</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>23</v>
       </c>
@@ -4196,7 +4231,7 @@
         <v>0.14831400966183581</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>23</v>
       </c>
@@ -4210,7 +4245,7 @@
         <v>0.16113913043478259</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>23</v>
       </c>
@@ -4224,7 +4259,7 @@
         <v>0.18107681159420291</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>23</v>
       </c>
@@ -4238,7 +4273,7 @@
         <v>0.18496376811594201</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>23</v>
       </c>
@@ -4252,7 +4287,7 @@
         <v>0.19215797101449281</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>23</v>
       </c>
@@ -4266,7 +4301,7 @@
         <v>0.19308502415458939</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>24</v>
       </c>
@@ -4280,7 +4315,7 @@
         <v>0.19083893022320531</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>24</v>
       </c>
@@ -4294,7 +4329,7 @@
         <v>0.1943376030565051</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>24</v>
       </c>
@@ -4308,7 +4343,7 @@
         <v>0.19162449896105641</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>24</v>
       </c>
@@ -4322,7 +4357,7 @@
         <v>0.17971648904082041</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>24</v>
       </c>
@@ -4336,7 +4371,7 @@
         <v>0.16902514243582009</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>24</v>
       </c>
@@ -4350,7 +4385,7 @@
         <v>0.16347527984449359</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>24</v>
       </c>
@@ -4364,7 +4399,7 @@
         <v>0.17092130169582409</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>24</v>
       </c>
@@ -4378,7 +4413,7 @@
         <v>0.18778631945840871</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>24</v>
       </c>
@@ -4392,7 +4427,7 @@
         <v>0.1990365305985656</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>24</v>
       </c>
@@ -4406,7 +4441,7 @@
         <v>0.19218312219317649</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>24</v>
       </c>
@@ -4420,7 +4455,7 @@
         <v>0.18202570547623839</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>24</v>
       </c>
@@ -4434,7 +4469,7 @@
         <v>0.1882931429720491</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>25</v>
       </c>
@@ -4448,7 +4483,7 @@
         <v>0.1784902554154543</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>25</v>
       </c>
@@ -4462,7 +4497,7 @@
         <v>0.1947658842547689</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>25</v>
       </c>
@@ -4476,7 +4511,7 @@
         <v>0.17860073714839961</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>25</v>
       </c>
@@ -4490,7 +4525,7 @@
         <v>0.181287959909473</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>25</v>
       </c>
@@ -4504,7 +4539,7 @@
         <v>0.17054821209182031</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>25</v>
       </c>
@@ -4518,7 +4553,7 @@
         <v>0.16679714839961199</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>25</v>
       </c>
@@ -4532,7 +4567,7 @@
         <v>0.17472966698997741</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>25</v>
       </c>
@@ -4546,7 +4581,7 @@
         <v>0.19611198189460069</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>25</v>
       </c>
@@ -4560,7 +4595,7 @@
         <v>0.19058109279017141</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>25</v>
       </c>
@@ -4574,7 +4609,7 @@
         <v>0.1813435370190753</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>25</v>
       </c>
@@ -4588,7 +4623,7 @@
         <v>0.16346437116068541</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>25</v>
       </c>
@@ -4602,7 +4637,7 @@
         <v>0.17423188490139019</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>26</v>
       </c>
@@ -4616,7 +4651,7 @@
         <v>0.15912307692307689</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>26</v>
       </c>
@@ -4630,7 +4665,7 @@
         <v>0.17608974358974361</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>26</v>
       </c>
@@ -4644,7 +4679,7 @@
         <v>0.16414615384615391</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>26</v>
       </c>
@@ -4658,7 +4693,7 @@
         <v>0.1722025641025641</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>26</v>
       </c>
@@ -4672,7 +4707,7 @@
         <v>0.16091025641025641</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>26</v>
       </c>
@@ -4686,7 +4721,7 @@
         <v>0.1581153846153846</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>26</v>
       </c>
@@ -4700,7 +4735,7 @@
         <v>0.16584615384615389</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>26</v>
       </c>
@@ -4714,7 +4749,7 @@
         <v>0.19177435897435899</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>26</v>
       </c>
@@ -4728,7 +4763,7 @@
         <v>0.1781897435897436</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>26</v>
       </c>
@@ -4742,7 +4777,7 @@
         <v>0.1736102564102564</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>26</v>
       </c>
@@ -4756,7 +4791,7 @@
         <v>0.1621615384615385</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>26</v>
       </c>
@@ -4770,7 +4805,7 @@
         <v>0.164674358974359</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>27</v>
       </c>
@@ -4784,7 +4819,7 @@
         <v>0.16910282485875711</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>27</v>
       </c>
@@ -4798,7 +4833,7 @@
         <v>0.18363954802259891</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>27</v>
       </c>
@@ -4812,7 +4847,7 @@
         <v>0.17329661016949149</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>27</v>
       </c>
@@ -4826,7 +4861,7 @@
         <v>0.18281638418079099</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>27</v>
       </c>
@@ -4840,7 +4875,7 @@
         <v>0.1863118644067796</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>27</v>
       </c>
@@ -4854,7 +4889,7 @@
         <v>0.1881378531073446</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>27</v>
       </c>
@@ -4868,7 +4903,7 @@
         <v>0.19634858757062151</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>27</v>
       </c>
@@ -4882,7 +4917,7 @@
         <v>0.21915141242937849</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>27</v>
       </c>
@@ -4896,7 +4931,7 @@
         <v>0.19963898305084751</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>27</v>
       </c>
@@ -4910,7 +4945,7 @@
         <v>0.1821463276836158</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>27</v>
       </c>
@@ -4924,7 +4959,7 @@
         <v>0.15930338983050851</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>27</v>
       </c>
@@ -4938,7 +4973,7 @@
         <v>0.16645028248587571</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>28</v>
       </c>
@@ -4952,7 +4987,7 @@
         <v>0.16947041156840939</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>28</v>
       </c>
@@ -4966,7 +5001,7 @@
         <v>0.17058057100482019</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>28</v>
       </c>
@@ -4980,7 +5015,7 @@
         <v>0.16640103819058211</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>28</v>
       </c>
@@ -4994,7 +5029,7 @@
         <v>0.15082131998516871</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>28</v>
       </c>
@@ -5008,7 +5043,7 @@
         <v>0.12905576566555441</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>28</v>
       </c>
@@ -5022,7 +5057,7 @@
         <v>0.1153037819799778</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>28</v>
       </c>
@@ -5036,7 +5071,7 @@
         <v>0.12367415647015199</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>28</v>
       </c>
@@ -5050,7 +5085,7 @@
         <v>0.1491812384130515</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>28</v>
       </c>
@@ -5064,7 +5099,7 @@
         <v>0.13720800889877641</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>28</v>
       </c>
@@ -5078,7 +5113,7 @@
         <v>0.148189247311828</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>28</v>
       </c>
@@ -5092,7 +5127,7 @@
         <v>0.1709149425287356</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>28</v>
       </c>
@@ -5106,7 +5141,7 @@
         <v>0.1722366703744902</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>29</v>
       </c>
@@ -5120,7 +5155,7 @@
         <v>0.1885271750805585</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>29</v>
       </c>
@@ -5134,7 +5169,7 @@
         <v>0.18566738274257069</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>29</v>
       </c>
@@ -5148,7 +5183,7 @@
         <v>0.17776913712853559</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>29</v>
       </c>
@@ -5162,7 +5197,7 @@
         <v>0.15678650196920871</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>29</v>
       </c>
@@ -5176,7 +5211,7 @@
         <v>0.12564063730755459</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>29</v>
       </c>
@@ -5190,7 +5225,7 @@
         <v>0.1106758682420337</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>29</v>
       </c>
@@ -5204,7 +5239,7 @@
         <v>0.1176325098460437</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>29</v>
       </c>
@@ -5218,7 +5253,7 @@
         <v>0.13517597565341929</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>29</v>
       </c>
@@ -5232,7 +5267,7 @@
         <v>0.1383181883279628</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>29</v>
       </c>
@@ -5246,7 +5281,7 @@
         <v>0.16375524525599711</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>29</v>
       </c>
@@ -5260,7 +5295,7 @@
         <v>0.18821152882205519</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>29</v>
       </c>
@@ -5274,9 +5309,9 @@
         <v>0.1927029359112066</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -5288,9 +5323,9 @@
         <v>0.17016079452946919</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B339">
         <v>2</v>
@@ -5302,9 +5337,9 @@
         <v>0.18172837295126451</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B340">
         <v>3</v>
@@ -5316,9 +5351,9 @@
         <v>0.1773150222511668</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B341">
         <v>4</v>
@@ -5330,9 +5365,9 @@
         <v>0.1873639965266472</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B342">
         <v>5</v>
@@ -5344,9 +5379,9 @@
         <v>0.1857384022576794</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B343">
         <v>6</v>
@@ -5358,9 +5393,9 @@
         <v>0.18157362422663631</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B344">
         <v>7</v>
@@ -5372,9 +5407,9 @@
         <v>0.1885611310105286</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B345">
         <v>8</v>
@@ -5386,9 +5421,9 @@
         <v>0.20949825246933679</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B346">
         <v>9</v>
@@ -5400,9 +5435,9 @@
         <v>0.19172158905893841</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B347">
         <v>10</v>
@@ -5414,9 +5449,9 @@
         <v>0.18054124606534239</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B348">
         <v>11</v>
@@ -5428,9 +5463,9 @@
         <v>0.16614928904808429</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B349">
         <v>12</v>
@@ -5442,9 +5477,9 @@
         <v>0.1691049712362965</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -5456,9 +5491,9 @@
         <v>0.17240762852404651</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B351">
         <v>2</v>
@@ -5470,9 +5505,9 @@
         <v>0.19025124378109451</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B352">
         <v>3</v>
@@ -5484,9 +5519,9 @@
         <v>0.17050663349917081</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B353">
         <v>4</v>
@@ -5498,9 +5533,9 @@
         <v>0.16367893864013269</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B354">
         <v>5</v>
@@ -5512,9 +5547,9 @@
         <v>0.1487285240464345</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B355">
         <v>6</v>
@@ -5526,9 +5561,9 @@
         <v>0.14719900497512439</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B356">
         <v>7</v>
@@ -5540,9 +5575,9 @@
         <v>0.15157296849087901</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B357">
         <v>8</v>
@@ -5554,9 +5589,9 @@
         <v>0.1724512437810945</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B358">
         <v>9</v>
@@ -5568,9 +5603,9 @@
         <v>0.16963018242122721</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B359">
         <v>10</v>
@@ -5582,9 +5617,9 @@
         <v>0.16284560530679931</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B360">
         <v>11</v>
@@ -5596,9 +5631,9 @@
         <v>0.1484290215588723</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B361">
         <v>12</v>
@@ -5610,9 +5645,9 @@
         <v>0.16639253731343279</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -5624,9 +5659,9 @@
         <v>0.19060858858858859</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -5638,9 +5673,9 @@
         <v>0.1945409009009009</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B364">
         <v>3</v>
@@ -5652,9 +5687,9 @@
         <v>0.20040660660660661</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B365">
         <v>4</v>
@@ -5666,9 +5701,9 @@
         <v>0.1915381981981982</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B366">
         <v>5</v>
@@ -5680,9 +5715,9 @@
         <v>0.1739861261261261</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B367">
         <v>6</v>
@@ -5694,9 +5729,9 @@
         <v>0.16088846846846841</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B368">
         <v>7</v>
@@ -5708,9 +5743,9 @@
         <v>0.1678222822822823</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B369">
         <v>8</v>
@@ -5722,9 +5757,9 @@
         <v>0.1910639039039039</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B370">
         <v>9</v>
@@ -5736,9 +5771,9 @@
         <v>0.20549465465465461</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B371">
         <v>10</v>
@@ -5750,9 +5785,9 @@
         <v>0.20638132132132131</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B372">
         <v>11</v>
@@ -5764,9 +5799,9 @@
         <v>0.2070654654654655</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B373">
         <v>12</v>
@@ -5778,9 +5813,9 @@
         <v>0.1952063663663664</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -5792,9 +5827,9 @@
         <v>0.18342</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B375">
         <v>2</v>
@@ -5806,9 +5841,9 @@
         <v>0.1880077777777778</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B376">
         <v>3</v>
@@ -5820,9 +5855,9 @@
         <v>0.19414777777777781</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B377">
         <v>4</v>
@@ -5834,9 +5869,9 @@
         <v>0.1818788888888889</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B378">
         <v>5</v>
@@ -5848,9 +5883,9 @@
         <v>0.16325444444444451</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B379">
         <v>6</v>
@@ -5862,9 +5897,9 @@
         <v>0.14621777777777781</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B380">
         <v>7</v>
@@ -5876,9 +5911,9 @@
         <v>0.15160444444444451</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B381">
         <v>8</v>
@@ -5890,9 +5925,9 @@
         <v>0.17337888888888889</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B382">
         <v>9</v>
@@ -5904,9 +5939,9 @@
         <v>0.1885955555555556</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B383">
         <v>10</v>
@@ -5918,9 +5953,9 @@
         <v>0.19302555555555559</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B384">
         <v>11</v>
@@ -5932,9 +5967,9 @@
         <v>0.19637444444444441</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B385">
         <v>12</v>
@@ -5946,9 +5981,9 @@
         <v>0.18774777777777779</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -5960,9 +5995,9 @@
         <v>0.1659208333333333</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B387">
         <v>2</v>
@@ -5974,9 +6009,9 @@
         <v>0.18662916666666671</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B388">
         <v>3</v>
@@ -5988,9 +6023,9 @@
         <v>0.16177291666666671</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B389">
         <v>4</v>
@@ -6002,9 +6037,9 @@
         <v>0.15661249999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B390">
         <v>5</v>
@@ -6016,9 +6051,9 @@
         <v>0.1416125</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B391">
         <v>6</v>
@@ -6030,9 +6065,9 @@
         <v>0.14039375000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B392">
         <v>7</v>
@@ -6044,9 +6079,9 @@
         <v>0.1433291666666667</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B393">
         <v>8</v>
@@ -6058,9 +6093,9 @@
         <v>0.1636729166666667</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B394">
         <v>9</v>
@@ -6072,9 +6107,9 @@
         <v>0.15841875</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B395">
         <v>10</v>
@@ -6086,9 +6121,9 @@
         <v>0.15458333333333341</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B396">
         <v>11</v>
@@ -6100,9 +6135,9 @@
         <v>0.1408041666666667</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B397">
         <v>12</v>
@@ -6114,9 +6149,9 @@
         <v>0.15838749999999999</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -6128,9 +6163,9 @@
         <v>0.13866616338772811</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B399">
         <v>2</v>
@@ -6142,9 +6177,9 @@
         <v>0.14723058563367389</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B400">
         <v>3</v>
@@ -6156,9 +6191,9 @@
         <v>0.14533204971785879</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B401">
         <v>4</v>
@@ -6170,9 +6205,9 @@
         <v>0.14198821869757511</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B402">
         <v>5</v>
@@ -6184,9 +6219,9 @@
         <v>0.13492658990391951</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B403">
         <v>6</v>
@@ -6198,9 +6233,9 @@
         <v>0.1466680773727822</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B404">
         <v>7</v>
@@ -6212,9 +6247,9 @@
         <v>0.14935856336739359</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B405">
         <v>8</v>
@@ -6226,9 +6261,9 @@
         <v>0.1677623099994916</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B406">
         <v>9</v>
@@ -6240,9 +6275,9 @@
         <v>0.16804131208377809</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B407">
         <v>10</v>
@@ -6254,9 +6289,9 @@
         <v>0.16251182451324289</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B408">
         <v>11</v>
@@ -6268,9 +6303,9 @@
         <v>0.15324733363835091</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B409">
         <v>12</v>
@@ -6282,9 +6317,9 @@
         <v>0.14312518173961669</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -6296,9 +6331,9 @@
         <v>0.16005</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B411">
         <v>2</v>
@@ -6310,9 +6345,9 @@
         <v>0.1651551282051282</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B412">
         <v>3</v>
@@ -6324,9 +6359,9 @@
         <v>0.16054230769230771</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B413">
         <v>4</v>
@@ -6338,9 +6373,9 @@
         <v>0.14769871794871789</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B414">
         <v>5</v>
@@ -6352,9 +6387,9 @@
         <v>0.1269051282051282</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B415">
         <v>6</v>
@@ -6366,9 +6401,9 @@
         <v>0.11631282051282051</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B416">
         <v>7</v>
@@ -6380,9 +6415,9 @@
         <v>0.1223012820512821</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B417">
         <v>8</v>
@@ -6394,9 +6429,9 @@
         <v>0.15598846153846149</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B418">
         <v>9</v>
@@ -6408,9 +6443,9 @@
         <v>0.1403935897435897</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B419">
         <v>10</v>
@@ -6422,9 +6457,9 @@
         <v>0.1449397435897436</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B420">
         <v>11</v>
@@ -6436,9 +6471,9 @@
         <v>0.16228846153846149</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B421">
         <v>12</v>
@@ -6450,9 +6485,9 @@
         <v>0.16425128205128209</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -6464,9 +6499,9 @@
         <v>0.18463777777777779</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B423">
         <v>2</v>
@@ -6478,9 +6513,9 @@
         <v>0.1803066666666667</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B424">
         <v>3</v>
@@ -6492,9 +6527,9 @@
         <v>0.18384</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B425">
         <v>4</v>
@@ -6506,9 +6541,9 @@
         <v>0.1671111111111111</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B426">
         <v>5</v>
@@ -6520,9 +6555,9 @@
         <v>0.14123333333333329</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B427">
         <v>6</v>
@@ -6534,9 +6569,9 @@
         <v>0.1284177777777778</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B428">
         <v>7</v>
@@ -6548,9 +6583,9 @@
         <v>0.13753777777777779</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B429">
         <v>8</v>
@@ -6562,9 +6597,9 @@
         <v>0.1689111111111111</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B430">
         <v>9</v>
@@ -6576,9 +6611,9 @@
         <v>0.15523333333333331</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B431">
         <v>10</v>
@@ -6590,9 +6625,9 @@
         <v>0.17061777777777781</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B432">
         <v>11</v>
@@ -6604,9 +6639,9 @@
         <v>0.1849466666666667</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B433">
         <v>12</v>
@@ -6618,9 +6653,9 @@
         <v>0.18276666666666669</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -6632,9 +6667,9 @@
         <v>0.1626238095238095</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B435">
         <v>2</v>
@@ -6646,9 +6681,9 @@
         <v>0.16281904761904761</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B436">
         <v>3</v>
@@ -6660,9 +6695,9 @@
         <v>0.15690000000000001</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B437">
         <v>4</v>
@@ -6674,9 +6709,9 @@
         <v>0.15068095238095239</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B438">
         <v>5</v>
@@ -6688,9 +6723,9 @@
         <v>0.13019523809523811</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B439">
         <v>6</v>
@@ -6702,9 +6737,9 @@
         <v>0.1163142857142857</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B440">
         <v>7</v>
@@ -6716,9 +6751,9 @@
         <v>0.1233428571428572</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B441">
         <v>8</v>
@@ -6730,9 +6765,9 @@
         <v>0.14459047619047621</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B442">
         <v>9</v>
@@ -6744,9 +6779,9 @@
         <v>0.1286238095238095</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B443">
         <v>10</v>
@@ -6758,9 +6793,9 @@
         <v>0.13899047619047619</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B444">
         <v>11</v>
@@ -6772,9 +6807,9 @@
         <v>0.16724285714285711</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B445">
         <v>12</v>
@@ -6786,9 +6821,9 @@
         <v>0.16833333333333331</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -6800,9 +6835,9 @@
         <v>0.182995652173913</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B447">
         <v>2</v>
@@ -6814,9 +6849,9 @@
         <v>0.18002463768115939</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B448">
         <v>3</v>
@@ -6828,9 +6863,9 @@
         <v>0.1809782608695652</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B449">
         <v>4</v>
@@ -6842,9 +6877,9 @@
         <v>0.1635768115942029</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B450">
         <v>5</v>
@@ -6856,9 +6891,9 @@
         <v>0.13768115942028991</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B451">
         <v>6</v>
@@ -6870,9 +6905,9 @@
         <v>0.1229826086956522</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B452">
         <v>7</v>
@@ -6884,9 +6919,9 @@
         <v>0.13309855072463769</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B453">
         <v>8</v>
@@ -6898,9 +6933,9 @@
         <v>0.1602666666666667</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B454">
         <v>9</v>
@@ -6912,9 +6947,9 @@
         <v>0.14964347826086949</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B455">
         <v>10</v>
@@ -6926,9 +6961,9 @@
         <v>0.16768550724637679</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B456">
         <v>11</v>
@@ -6940,9 +6975,9 @@
         <v>0.18439130434782611</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B457">
         <v>12</v>
@@ -6954,9 +6989,9 @@
         <v>0.18342463768115941</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -6968,9 +7003,9 @@
         <v>0.1561791666666667</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B459">
         <v>2</v>
@@ -6982,9 +7017,9 @@
         <v>0.15861249999999999</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B460">
         <v>3</v>
@@ -6996,9 +7031,9 @@
         <v>0.15314583333333329</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B461">
         <v>4</v>
@@ -7010,9 +7045,9 @@
         <v>0.14874999999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B462">
         <v>5</v>
@@ -7024,9 +7059,9 @@
         <v>0.1283125</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B463">
         <v>6</v>
@@ -7038,9 +7073,9 @@
         <v>0.1170416666666667</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B464">
         <v>7</v>
@@ -7052,9 +7087,9 @@
         <v>0.124725</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B465">
         <v>8</v>
@@ -7066,9 +7101,9 @@
         <v>0.1454125</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B466">
         <v>9</v>
@@ -7080,9 +7115,9 @@
         <v>0.128525</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B467">
         <v>10</v>
@@ -7094,9 +7129,9 @@
         <v>0.1384</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B468">
         <v>11</v>
@@ -7108,9 +7143,9 @@
         <v>0.164575</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B469">
         <v>12</v>
@@ -7122,9 +7157,9 @@
         <v>0.16532916666666669</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -7136,9 +7171,9 @@
         <v>0.18903958333333329</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B471">
         <v>2</v>
@@ -7150,9 +7185,9 @@
         <v>0.1920958333333333</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B472">
         <v>3</v>
@@ -7164,9 +7199,9 @@
         <v>0.18388750000000001</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B473">
         <v>4</v>
@@ -7178,9 +7213,9 @@
         <v>0.16273750000000001</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B474">
         <v>5</v>
@@ -7192,9 +7227,9 @@
         <v>0.13613125000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B475">
         <v>6</v>
@@ -7206,9 +7241,9 @@
         <v>0.1170916666666667</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B476">
         <v>7</v>
@@ -7220,9 +7255,9 @@
         <v>0.12826041666666671</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B477">
         <v>8</v>
@@ -7234,9 +7269,9 @@
         <v>0.1510729166666667</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B478">
         <v>9</v>
@@ -7248,9 +7283,9 @@
         <v>0.14651666666666671</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B479">
         <v>10</v>
@@ -7262,9 +7297,9 @@
         <v>0.16774375</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B480">
         <v>11</v>
@@ -7276,9 +7311,9 @@
         <v>0.1873354166666667</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B481">
         <v>12</v>
@@ -7290,9 +7325,9 @@
         <v>0.19004166666666669</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B482">
         <v>1</v>
@@ -7304,9 +7339,9 @@
         <v>0.19022409356725151</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -7318,9 +7353,9 @@
         <v>0.191120701754386</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B484">
         <v>3</v>
@@ -7332,9 +7367,9 @@
         <v>0.19732479532163741</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B485">
         <v>4</v>
@@ -7346,9 +7381,9 @@
         <v>0.1788245614035088</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B486">
         <v>5</v>
@@ -7360,9 +7395,9 @@
         <v>0.15420128654970761</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B487">
         <v>6</v>
@@ -7374,9 +7409,9 @@
         <v>0.1433157894736842</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B488">
         <v>7</v>
@@ -7388,9 +7423,9 @@
         <v>0.14618245614035091</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B489">
         <v>8</v>
@@ -7402,9 +7437,9 @@
         <v>0.16463812865497079</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B490">
         <v>9</v>
@@ -7416,9 +7451,9 @@
         <v>0.1862085380116959</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B491">
         <v>10</v>
@@ -7430,9 +7465,9 @@
         <v>0.1906691228070175</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B492">
         <v>11</v>
@@ -7444,9 +7479,9 @@
         <v>0.20042257309941519</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B493">
         <v>12</v>
@@ -7458,9 +7493,9 @@
         <v>0.1956149707602339</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -7472,9 +7507,9 @@
         <v>0.1910856230031949</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B495">
         <v>2</v>
@@ -7486,9 +7521,9 @@
         <v>0.1910898473553426</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B496">
         <v>3</v>
@@ -7500,9 +7535,9 @@
         <v>0.19715161519346819</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B497">
         <v>4</v>
@@ -7514,9 +7549,9 @@
         <v>0.18442442314518989</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B498">
         <v>5</v>
@@ -7528,9 +7563,9 @@
         <v>0.16455910543130989</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B499">
         <v>6</v>
@@ -7542,9 +7577,9 @@
         <v>0.15316354277600289</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B500">
         <v>7</v>
@@ -7556,9 +7591,9 @@
         <v>0.15994139155129569</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B501">
         <v>8</v>
@@ -7570,9 +7605,9 @@
         <v>0.1834603123890664</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B502">
         <v>9</v>
@@ -7584,9 +7619,9 @@
         <v>0.20406918707845231</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B503">
         <v>10</v>
@@ -7598,9 +7633,9 @@
         <v>0.2036799787007455</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B504">
         <v>11</v>
@@ -7612,9 +7647,9 @@
         <v>0.2055822861199858</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B505">
         <v>12</v>
@@ -7626,9 +7661,9 @@
         <v>0.19613297834575791</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -7640,9 +7675,9 @@
         <v>0.13828242967153859</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B507">
         <v>2</v>
@@ -7654,9 +7689,9 @@
         <v>0.14223812666980981</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B508">
         <v>3</v>
@@ -7668,9 +7703,9 @@
         <v>0.14719066478076381</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B509">
         <v>4</v>
@@ -7682,9 +7717,9 @@
         <v>0.15482819424799621</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B510">
         <v>5</v>
@@ -7696,9 +7731,9 @@
         <v>0.14564233851956629</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B511">
         <v>6</v>
@@ -7710,9 +7745,9 @@
         <v>0.16046221907905081</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B512">
         <v>7</v>
@@ -7724,9 +7759,9 @@
         <v>0.16561346848970609</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B513">
         <v>8</v>
@@ -7738,9 +7773,9 @@
         <v>0.17554727329875849</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B514">
         <v>9</v>
@@ -7752,9 +7787,9 @@
         <v>0.1670934464875059</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B515">
         <v>10</v>
@@ -7766,9 +7801,9 @@
         <v>0.16472124783906961</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B516">
         <v>11</v>
@@ -7780,9 +7815,9 @@
         <v>0.15346652522395099</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B517">
         <v>12</v>
@@ -7794,9 +7829,9 @@
         <v>0.14511563727801349</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -7808,9 +7843,9 @@
         <v>0.19028379814077029</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B519">
         <v>2</v>
@@ -7822,9 +7857,9 @@
         <v>0.1946152058432935</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B520">
         <v>3</v>
@@ -7836,9 +7871,9 @@
         <v>0.19867191235059761</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B521">
         <v>4</v>
@@ -7850,9 +7885,9 @@
         <v>0.19102516600265601</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B522">
         <v>5</v>
@@ -7864,9 +7899,9 @@
         <v>0.17989760956175299</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B523">
         <v>6</v>
@@ -7878,9 +7913,9 @@
         <v>0.168056839309429</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B524">
         <v>7</v>
@@ -7892,9 +7927,9 @@
         <v>0.1760530544488712</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B525">
         <v>8</v>
@@ -7906,9 +7941,9 @@
         <v>0.19755763612217789</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B526">
         <v>9</v>
@@ -7920,9 +7955,9 @@
         <v>0.20743439575033201</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B527">
         <v>10</v>
@@ -7934,9 +7969,9 @@
         <v>0.2079875166002656</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B528">
         <v>11</v>
@@ -7948,9 +7983,9 @@
         <v>0.2064327357237716</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B529">
         <v>12</v>
@@ -7962,9 +7997,9 @@
         <v>0.19247397078353251</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -7976,9 +8011,9 @@
         <v>0.17163364485981311</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B531">
         <v>2</v>
@@ -7990,9 +8025,9 @@
         <v>0.18743779854620979</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B532">
         <v>3</v>
@@ -8004,9 +8039,9 @@
         <v>0.1793563862928349</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B533">
         <v>4</v>
@@ -8018,9 +8053,9 @@
         <v>0.1817110072689512</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B534">
         <v>5</v>
@@ -8032,9 +8067,9 @@
         <v>0.16392177223952931</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B535">
         <v>6</v>
@@ -8046,9 +8081,9 @@
         <v>0.15939993077189341</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B536">
         <v>7</v>
@@ -8060,9 +8095,9 @@
         <v>0.16555327102803741</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B537">
         <v>8</v>
@@ -8074,9 +8109,9 @@
         <v>0.1911334371754933</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B538">
         <v>9</v>
@@ -8088,9 +8123,9 @@
         <v>0.17634911734164069</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B539">
         <v>10</v>
@@ -8102,9 +8137,9 @@
         <v>0.1800297680858429</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B540">
         <v>11</v>
@@ -8116,9 +8151,9 @@
         <v>0.17726313603322949</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B541">
         <v>12</v>
@@ -8130,9 +8165,9 @@
         <v>0.18049525787469711</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -8144,9 +8179,9 @@
         <v>0.18990000000000001</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B543">
         <v>2</v>
@@ -8158,9 +8193,9 @@
         <v>0.19017017543859649</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B544">
         <v>3</v>
@@ -8172,9 +8207,9 @@
         <v>0.19447543859649119</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B545">
         <v>4</v>
@@ -8186,9 +8221,9 @@
         <v>0.17348596491228069</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B546">
         <v>5</v>
@@ -8200,9 +8235,9 @@
         <v>0.1504087719298246</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B547">
         <v>6</v>
@@ -8214,9 +8249,9 @@
         <v>0.14305789473684211</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B548">
         <v>7</v>
@@ -8228,9 +8263,9 @@
         <v>0.14559649122807011</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B549">
         <v>8</v>
@@ -8242,9 +8277,9 @@
         <v>0.15902456140350879</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B550">
         <v>9</v>
@@ -8256,9 +8291,9 @@
         <v>0.1793859649122807</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B551">
         <v>10</v>
@@ -8270,9 +8305,9 @@
         <v>0.18272280701754379</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B552">
         <v>11</v>
@@ -8284,9 +8319,9 @@
         <v>0.19198421052631581</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B553">
         <v>12</v>
@@ -8298,9 +8333,9 @@
         <v>0.190480701754386</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -8312,9 +8347,9 @@
         <v>0.1669296448087432</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B555">
         <v>2</v>
@@ -8326,9 +8361,9 @@
         <v>0.1824228142076503</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B556">
         <v>3</v>
@@ -8340,9 +8375,9 @@
         <v>0.17541352459016391</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B557">
         <v>4</v>
@@ -8354,9 +8389,9 @@
         <v>0.1756665300546448</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B558">
         <v>5</v>
@@ -8368,9 +8403,9 @@
         <v>0.15445901639344259</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B559">
         <v>6</v>
@@ -8382,9 +8417,9 @@
         <v>0.14988879781420761</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B560">
         <v>7</v>
@@ -8396,9 +8431,9 @@
         <v>0.1546950819672131</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B561">
         <v>8</v>
@@ -8410,9 +8445,9 @@
         <v>0.18329043715846999</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B562">
         <v>9</v>
@@ -8424,9 +8459,9 @@
         <v>0.1694741803278689</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B563">
         <v>10</v>
@@ -8438,9 +8473,9 @@
         <v>0.17281461748633881</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B564">
         <v>11</v>
@@ -8452,9 +8487,9 @@
         <v>0.17388374316939889</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B565">
         <v>12</v>
@@ -8466,9 +8501,9 @@
         <v>0.1781765027322405</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -8480,9 +8515,9 @@
         <v>0.17396780477128471</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B567">
         <v>2</v>
@@ -8494,9 +8529,9 @@
         <v>0.18211289122346239</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B568">
         <v>3</v>
@@ -8508,9 +8543,9 @@
         <v>0.18361222368133071</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B569">
         <v>4</v>
@@ -8522,9 +8557,9 @@
         <v>0.17989168308163711</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B570">
         <v>5</v>
@@ -8536,9 +8571,9 @@
         <v>0.15881137010286711</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B571">
         <v>6</v>
@@ -8550,9 +8585,9 @@
         <v>0.15449683738235939</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B572">
         <v>7</v>
@@ -8564,9 +8599,9 @@
         <v>0.15824599474720949</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B573">
         <v>8</v>
@@ -8578,9 +8613,9 @@
         <v>0.18388903479973731</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B574">
         <v>9</v>
@@ -8592,9 +8627,9 @@
         <v>0.1731408404464872</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B575">
         <v>10</v>
@@ -8606,9 +8641,9 @@
         <v>0.1763160210111622</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B576">
         <v>11</v>
@@ -8620,9 +8655,9 @@
         <v>0.17880497920770411</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B577">
         <v>12</v>
@@ -8634,9 +8669,9 @@
         <v>0.18230669730794491</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B578">
         <v>1</v>
@@ -8648,9 +8683,9 @@
         <v>0.15626867392696989</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B579">
         <v>2</v>
@@ -8662,9 +8697,9 @@
         <v>0.1616757890241298</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B580">
         <v>3</v>
@@ -8676,9 +8711,9 @@
         <v>0.16381762972453559</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B581">
         <v>4</v>
@@ -8690,9 +8725,9 @@
         <v>0.17034648729446941</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B582">
         <v>5</v>
@@ -8704,9 +8739,9 @@
         <v>0.16952776852445009</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B583">
         <v>6</v>
@@ -8718,9 +8753,9 @@
         <v>0.1743195259449071</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B584">
         <v>7</v>
@@ -8732,9 +8767,9 @@
         <v>0.18011302583813801</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B585">
         <v>8</v>
@@ -8746,9 +8781,9 @@
         <v>0.19431593850096091</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B586">
         <v>9</v>
@@ -8760,9 +8795,9 @@
         <v>0.17600610292547511</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B587">
         <v>10</v>
@@ -8774,9 +8809,9 @@
         <v>0.16975009609224859</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B588">
         <v>11</v>
@@ -8788,9 +8823,9 @@
         <v>0.1616319197095879</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B589">
         <v>12</v>
@@ -8802,9 +8837,9 @@
         <v>0.1597727226137092</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B590">
         <v>1</v>
@@ -8816,9 +8851,9 @@
         <v>0.1762973122331073</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B591">
         <v>2</v>
@@ -8830,9 +8865,9 @@
         <v>0.1807010801306205</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B592">
         <v>3</v>
@@ -8844,9 +8879,9 @@
         <v>0.18362225571464461</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B593">
         <v>4</v>
@@ -8858,9 +8893,9 @@
         <v>0.17377907560914341</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B594">
         <v>5</v>
@@ -8872,9 +8907,9 @@
         <v>0.17638100979653359</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B595">
         <v>6</v>
@@ -8886,9 +8921,9 @@
         <v>0.1755416478271791</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B596">
         <v>7</v>
@@ -8900,9 +8935,9 @@
         <v>0.1860796533534288</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B597">
         <v>8</v>
@@ -8914,9 +8949,9 @@
         <v>0.20813210248681241</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B598">
         <v>9</v>
@@ -8928,9 +8963,9 @@
         <v>0.21690816377794531</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B599">
         <v>10</v>
@@ -8942,9 +8977,9 @@
         <v>0.21172675207234359</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B600">
         <v>11</v>
@@ -8956,9 +8991,9 @@
         <v>0.2056882692790756</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B601">
         <v>12</v>
@@ -8970,9 +9005,9 @@
         <v>0.18660934438583271</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B602">
         <v>1</v>
@@ -8984,9 +9019,9 @@
         <v>0.178608870967742</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B603">
         <v>2</v>
@@ -8998,9 +9033,9 @@
         <v>0.19699229390681</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B604">
         <v>3</v>
@@ -9012,9 +9047,9 @@
         <v>0.1734074372759857</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B605">
         <v>4</v>
@@ -9026,9 +9061,9 @@
         <v>0.16677123655913981</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B606">
         <v>5</v>
@@ -9040,9 +9075,9 @@
         <v>0.14966612903225809</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B607">
         <v>6</v>
@@ -9054,9 +9089,9 @@
         <v>0.14631774193548391</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B608">
         <v>7</v>
@@ -9068,9 +9103,9 @@
         <v>0.14632168458781361</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B609">
         <v>8</v>
@@ -9082,9 +9117,9 @@
         <v>0.16892428315412189</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B610">
         <v>9</v>
@@ -9096,9 +9131,9 @@
         <v>0.1627737455197133</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B611">
         <v>10</v>
@@ -9110,9 +9145,9 @@
         <v>0.16170322580645161</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B612">
         <v>11</v>
@@ -9124,9 +9159,9 @@
         <v>0.15213198924731181</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B613">
         <v>12</v>
@@ -9138,9 +9173,9 @@
         <v>0.17018279569892469</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B614">
         <v>1</v>
@@ -9152,9 +9187,9 @@
         <v>0.1923908108108108</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B615">
         <v>2</v>
@@ -9166,9 +9201,9 @@
         <v>0.1928104504504505</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B616">
         <v>3</v>
@@ -9180,9 +9215,9 @@
         <v>0.1967410810810811</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B617">
         <v>4</v>
@@ -9194,9 +9229,9 @@
         <v>0.1772046846846847</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B618">
         <v>5</v>
@@ -9208,9 +9243,9 @@
         <v>0.15404522522522521</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B619">
         <v>6</v>
@@ -9222,9 +9257,9 @@
         <v>0.14574810810810809</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B620">
         <v>7</v>
@@ -9236,9 +9271,9 @@
         <v>0.14841171171171169</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B621">
         <v>8</v>
@@ -9250,9 +9285,9 @@
         <v>0.16471369369369371</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B622">
         <v>9</v>
@@ -9264,9 +9299,9 @@
         <v>0.18443027027027031</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B623">
         <v>10</v>
@@ -9278,9 +9313,9 @@
         <v>0.18755495495495489</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B624">
         <v>11</v>
@@ -9292,9 +9327,9 @@
         <v>0.19692576576576579</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B625">
         <v>12</v>
@@ -9306,9 +9341,9 @@
         <v>0.19406594594594601</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B626">
         <v>1</v>
@@ -9320,9 +9355,9 @@
         <v>0.14540103463787671</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B627">
         <v>2</v>
@@ -9334,9 +9369,9 @@
         <v>0.15306410256410261</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B628">
         <v>3</v>
@@ -9348,9 +9383,9 @@
         <v>0.1402974358974359</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B629">
         <v>4</v>
@@ -9362,9 +9397,9 @@
         <v>0.15371160593792171</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B630">
         <v>5</v>
@@ -9376,9 +9411,9 @@
         <v>0.14480411605937921</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B631">
         <v>6</v>
@@ -9390,9 +9425,9 @@
         <v>0.14892816014394961</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B632">
         <v>7</v>
@@ -9404,9 +9439,9 @@
         <v>0.1568389788574</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B633">
         <v>8</v>
@@ -9418,9 +9453,9 @@
         <v>0.17537827260458841</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B634">
         <v>9</v>
@@ -9432,9 +9467,9 @@
         <v>0.1734099415204679</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B635">
         <v>10</v>
@@ -9446,9 +9481,9 @@
         <v>0.1647526315789474</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B636">
         <v>11</v>
@@ -9460,9 +9495,9 @@
         <v>0.15747026540710751</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B637">
         <v>12</v>
@@ -9474,9 +9509,9 @@
         <v>0.14528047683310841</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B638">
         <v>1</v>
@@ -9488,9 +9523,9 @@
         <v>0.17359643449419571</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B639">
         <v>2</v>
@@ -9502,9 +9537,9 @@
         <v>0.18490456053067991</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B640">
         <v>3</v>
@@ -9516,9 +9551,9 @@
         <v>0.1816208126036484</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B641">
         <v>4</v>
@@ -9530,9 +9565,9 @@
         <v>0.1782470149253732</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B642">
         <v>5</v>
@@ -9544,9 +9579,9 @@
         <v>0.15742520729684911</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B643">
         <v>6</v>
@@ -9558,9 +9593,9 @@
         <v>0.1510542288557214</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B644">
         <v>7</v>
@@ -9572,9 +9607,9 @@
         <v>0.1573577114427861</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B645">
         <v>8</v>
@@ -9586,9 +9621,9 @@
         <v>0.18529477611940301</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B646">
         <v>9</v>
@@ -9600,9 +9635,9 @@
         <v>0.17087512437810951</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B647">
         <v>10</v>
@@ -9614,9 +9649,9 @@
         <v>0.1769034825870647</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B648">
         <v>11</v>
@@ -9628,9 +9663,9 @@
         <v>0.17976451077943609</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B649">
         <v>12</v>
